--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H2">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I2">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J2">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>130.0984616041593</v>
+        <v>296.885618378515</v>
       </c>
       <c r="R2">
-        <v>130.0984616041593</v>
+        <v>2671.970565406636</v>
       </c>
       <c r="S2">
-        <v>0.003341091812883555</v>
+        <v>0.006445687219427171</v>
       </c>
       <c r="T2">
-        <v>0.003341091812883555</v>
+        <v>0.006445687219427172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H3">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I3">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J3">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>845.6485624860667</v>
+        <v>1050.26361360956</v>
       </c>
       <c r="R3">
-        <v>845.6485624860667</v>
+        <v>9452.372522486043</v>
       </c>
       <c r="S3">
-        <v>0.02171731666816739</v>
+        <v>0.02280228590474036</v>
       </c>
       <c r="T3">
-        <v>0.02171731666816739</v>
+        <v>0.02280228590474036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H4">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I4">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J4">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>241.0540827586766</v>
+        <v>410.718818861482</v>
       </c>
       <c r="R4">
-        <v>241.0540827586766</v>
+        <v>3696.469369753338</v>
       </c>
       <c r="S4">
-        <v>0.006190571452087184</v>
+        <v>0.008917121199648053</v>
       </c>
       <c r="T4">
-        <v>0.006190571452087184</v>
+        <v>0.008917121199648053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H5">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I5">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J5">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>244.5781457437974</v>
+        <v>303.933180379556</v>
       </c>
       <c r="R5">
-        <v>244.5781457437974</v>
+        <v>2735.398623416004</v>
       </c>
       <c r="S5">
-        <v>0.006281073813471731</v>
+        <v>0.006598696922511926</v>
       </c>
       <c r="T5">
-        <v>0.006281073813471731</v>
+        <v>0.006598696922511927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H6">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I6">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J6">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>237.069902579505</v>
+        <v>308.248607733246</v>
       </c>
       <c r="R6">
-        <v>237.069902579505</v>
+        <v>2774.237469599214</v>
       </c>
       <c r="S6">
-        <v>0.006088252703552056</v>
+        <v>0.006692389217517548</v>
       </c>
       <c r="T6">
-        <v>0.006088252703552056</v>
+        <v>0.006692389217517548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.87042407499737</v>
+        <v>12.150543</v>
       </c>
       <c r="H7">
-        <v>9.87042407499737</v>
+        <v>36.451629</v>
       </c>
       <c r="I7">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="J7">
-        <v>0.04571916794163563</v>
+        <v>0.05382648024663175</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>81.80524911952635</v>
+        <v>109.175002261066</v>
       </c>
       <c r="R7">
-        <v>81.80524911952635</v>
+        <v>982.5750203495941</v>
       </c>
       <c r="S7">
-        <v>0.002100861491473709</v>
+        <v>0.002370299782786688</v>
       </c>
       <c r="T7">
-        <v>0.002100861491473709</v>
+        <v>0.002370299782786688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H8">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I8">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J8">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>292.1807527768477</v>
+        <v>544.811854991305</v>
       </c>
       <c r="R8">
-        <v>292.1807527768477</v>
+        <v>4903.306694921746</v>
       </c>
       <c r="S8">
-        <v>0.00750356851993452</v>
+        <v>0.01182841671445543</v>
       </c>
       <c r="T8">
-        <v>0.00750356851993452</v>
+        <v>0.01182841671445544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H9">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I9">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J9">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>1899.194122092054</v>
+        <v>1927.328345123721</v>
       </c>
       <c r="R9">
-        <v>1899.194122092054</v>
+        <v>17345.95510611348</v>
       </c>
       <c r="S9">
-        <v>0.04877368920552606</v>
+        <v>0.04184424880414722</v>
       </c>
       <c r="T9">
-        <v>0.04877368920552606</v>
+        <v>0.04184424880414722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H10">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I10">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J10">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>541.369686404585</v>
+        <v>753.7060326663341</v>
       </c>
       <c r="R10">
-        <v>541.369686404585</v>
+        <v>6783.354293997007</v>
       </c>
       <c r="S10">
-        <v>0.01390305315441078</v>
+        <v>0.01636372071000298</v>
       </c>
       <c r="T10">
-        <v>0.01390305315441078</v>
+        <v>0.01636372071000298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H11">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I11">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J11">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>549.2841794979662</v>
+        <v>557.7447661505721</v>
       </c>
       <c r="R11">
-        <v>549.2841794979662</v>
+        <v>5019.702895355149</v>
       </c>
       <c r="S11">
-        <v>0.01410630727249463</v>
+        <v>0.01210920330366297</v>
       </c>
       <c r="T11">
-        <v>0.01410630727249463</v>
+        <v>0.01210920330366298</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H12">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I12">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J12">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>532.4218422133841</v>
+        <v>565.6639641046021</v>
       </c>
       <c r="R12">
-        <v>532.4218422133841</v>
+        <v>5090.975676941419</v>
       </c>
       <c r="S12">
-        <v>0.01367326128291932</v>
+        <v>0.0122811371053715</v>
       </c>
       <c r="T12">
-        <v>0.01367326128291932</v>
+        <v>0.0122811371053715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.167425355376</v>
+        <v>22.297341</v>
       </c>
       <c r="H13">
-        <v>22.167425355376</v>
+        <v>66.89202300000001</v>
       </c>
       <c r="I13">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="J13">
-        <v>0.1026780850504012</v>
+        <v>0.09877644027011076</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>183.7217671456048</v>
+        <v>200.345964298942</v>
       </c>
       <c r="R13">
-        <v>183.7217671456048</v>
+        <v>1803.113678690478</v>
       </c>
       <c r="S13">
-        <v>0.004718205615115857</v>
+        <v>0.004349713632470641</v>
       </c>
       <c r="T13">
-        <v>0.004718205615115857</v>
+        <v>0.004349713632470641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H14">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I14">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J14">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>648.3423623768502</v>
+        <v>1343.552835841903</v>
       </c>
       <c r="R14">
-        <v>648.3423623768502</v>
+        <v>12091.97552257713</v>
       </c>
       <c r="S14">
-        <v>0.01665024576135053</v>
+        <v>0.02916989172432746</v>
       </c>
       <c r="T14">
-        <v>0.01665024576135053</v>
+        <v>0.02916989172432746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H15">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I15">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J15">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>4214.268024252146</v>
+        <v>4752.957263991223</v>
       </c>
       <c r="R15">
-        <v>4214.268024252146</v>
+        <v>42776.61537592101</v>
       </c>
       <c r="S15">
-        <v>0.1082276932371938</v>
+        <v>0.1031915121329058</v>
       </c>
       <c r="T15">
-        <v>0.1082276932371938</v>
+        <v>0.1031915121329058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H16">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I16">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J16">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>1201.286868032794</v>
+        <v>1858.703822801661</v>
       </c>
       <c r="R16">
-        <v>1201.286868032794</v>
+        <v>16728.33440521495</v>
       </c>
       <c r="S16">
-        <v>0.03085055480456639</v>
+        <v>0.04035434097740082</v>
       </c>
       <c r="T16">
-        <v>0.03085055480456639</v>
+        <v>0.04035434097740083</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H17">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I17">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J17">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>1218.848945960278</v>
+        <v>1375.446505747456</v>
       </c>
       <c r="R17">
-        <v>1218.848945960278</v>
+        <v>12379.0185517271</v>
       </c>
       <c r="S17">
-        <v>0.03130157101226969</v>
+        <v>0.02986233557396099</v>
       </c>
       <c r="T17">
-        <v>0.03130157101226969</v>
+        <v>0.02986233557396099</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H18">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I18">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J18">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>1181.431807814183</v>
+        <v>1394.97592819165</v>
       </c>
       <c r="R18">
-        <v>1181.431807814183</v>
+        <v>12554.78335372485</v>
       </c>
       <c r="S18">
-        <v>0.03034065193313546</v>
+        <v>0.03028633909874894</v>
       </c>
       <c r="T18">
-        <v>0.03034065193313546</v>
+        <v>0.03028633909874894</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.1890064151269</v>
+        <v>54.98715833333333</v>
       </c>
       <c r="H19">
-        <v>49.1890064151269</v>
+        <v>164.961475</v>
       </c>
       <c r="I19">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="J19">
-        <v>0.2278403063625185</v>
+        <v>0.2435911869821439</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>407.6743707420198</v>
+        <v>494.0703584499278</v>
       </c>
       <c r="R19">
-        <v>407.6743707420198</v>
+        <v>4446.63322604935</v>
       </c>
       <c r="S19">
-        <v>0.01046958961400256</v>
+        <v>0.01072676747479987</v>
       </c>
       <c r="T19">
-        <v>0.01046958961400256</v>
+        <v>0.01072676747479987</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H20">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I20">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J20">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>871.3692597169755</v>
+        <v>1620.260158637309</v>
       </c>
       <c r="R20">
-        <v>871.3692597169755</v>
+        <v>14582.34142773578</v>
       </c>
       <c r="S20">
-        <v>0.02237785646149189</v>
+        <v>0.03517748772646958</v>
       </c>
       <c r="T20">
-        <v>0.02237785646149189</v>
+        <v>0.03517748772646958</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H21">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I21">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J21">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>5663.957534841829</v>
+        <v>5731.838067778792</v>
       </c>
       <c r="R21">
-        <v>5663.957534841829</v>
+        <v>51586.54261000912</v>
       </c>
       <c r="S21">
-        <v>0.145457539734468</v>
+        <v>0.1244440049979247</v>
       </c>
       <c r="T21">
-        <v>0.145457539734468</v>
+        <v>0.1244440049979247</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H22">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I22">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J22">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>1614.524223078648</v>
+        <v>2241.507494497051</v>
       </c>
       <c r="R22">
-        <v>1614.524223078648</v>
+        <v>20173.56745047346</v>
       </c>
       <c r="S22">
-        <v>0.04146300883897458</v>
+        <v>0.04866539608230292</v>
       </c>
       <c r="T22">
-        <v>0.04146300883897458</v>
+        <v>0.04866539608230293</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H23">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I23">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J23">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>1638.127577927562</v>
+        <v>1658.722391965346</v>
       </c>
       <c r="R23">
-        <v>1638.127577927562</v>
+        <v>14928.50152768811</v>
       </c>
       <c r="S23">
-        <v>0.04206917262192718</v>
+        <v>0.03601254173530699</v>
       </c>
       <c r="T23">
-        <v>0.04206917262192718</v>
+        <v>0.036012541735307</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H24">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I24">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J24">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>1587.839110199551</v>
+        <v>1682.273936990888</v>
       </c>
       <c r="R24">
-        <v>1587.839110199551</v>
+        <v>15140.46543291799</v>
       </c>
       <c r="S24">
-        <v>0.04077770164112703</v>
+        <v>0.03652386961167235</v>
       </c>
       <c r="T24">
-        <v>0.04077770164112703</v>
+        <v>0.03652386961167235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>66.10980647482231</v>
+        <v>66.31187066666666</v>
       </c>
       <c r="H25">
-        <v>66.10980647482231</v>
+        <v>198.935612</v>
       </c>
       <c r="I25">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="J25">
-        <v>0.306216361307884</v>
+        <v>0.2937592662777732</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>547.9125462922885</v>
+        <v>595.8251108587368</v>
       </c>
       <c r="R25">
-        <v>547.9125462922885</v>
+        <v>5362.425997728632</v>
       </c>
       <c r="S25">
-        <v>0.01407108200989535</v>
+        <v>0.01293596612409659</v>
       </c>
       <c r="T25">
-        <v>0.01407108200989535</v>
+        <v>0.01293596612409659</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H26">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I26">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J26">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N26">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q26">
-        <v>775.086577270745</v>
+        <v>1460.975656717445</v>
       </c>
       <c r="R26">
-        <v>775.086577270745</v>
+        <v>13148.78091045701</v>
       </c>
       <c r="S26">
-        <v>0.01990519630796642</v>
+        <v>0.03171925999592085</v>
       </c>
       <c r="T26">
-        <v>0.01990519630796642</v>
+        <v>0.03171925999592086</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H27">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I27">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J27">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N27">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q27">
-        <v>5038.113762371317</v>
+        <v>5168.352650425004</v>
       </c>
       <c r="R27">
-        <v>5038.113762371317</v>
+        <v>46515.17385382504</v>
       </c>
       <c r="S27">
-        <v>0.1293850860054798</v>
+        <v>0.1122101663471747</v>
       </c>
       <c r="T27">
-        <v>0.1293850860054798</v>
+        <v>0.1122101663471747</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H28">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I28">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J28">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N28">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q28">
-        <v>1436.126005171673</v>
+        <v>2021.149422426154</v>
       </c>
       <c r="R28">
-        <v>1436.126005171673</v>
+        <v>18190.34480183538</v>
       </c>
       <c r="S28">
-        <v>0.03688151865121548</v>
+        <v>0.04388119933810729</v>
       </c>
       <c r="T28">
-        <v>0.03688151865121548</v>
+        <v>0.04388119933810731</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H29">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I29">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J29">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N29">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q29">
-        <v>1457.121287387497</v>
+        <v>1495.656745612767</v>
       </c>
       <c r="R29">
-        <v>1457.121287387497</v>
+        <v>13460.9107105149</v>
       </c>
       <c r="S29">
-        <v>0.03742070385491066</v>
+        <v>0.03247222153265445</v>
       </c>
       <c r="T29">
-        <v>0.03742070385491066</v>
+        <v>0.03247222153265446</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H30">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I30">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J30">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N30">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q30">
-        <v>1412.389486382543</v>
+        <v>1516.892985840596</v>
       </c>
       <c r="R30">
-        <v>1412.389486382543</v>
+        <v>13652.03687256536</v>
       </c>
       <c r="S30">
-        <v>0.03627193505111099</v>
+        <v>0.03293328179880275</v>
       </c>
       <c r="T30">
-        <v>0.03627193505111099</v>
+        <v>0.03293328179880276</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.8049475617772</v>
+        <v>59.79288466666666</v>
       </c>
       <c r="H31">
-        <v>58.8049475617772</v>
+        <v>179.378654</v>
       </c>
       <c r="I31">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485285</v>
       </c>
       <c r="J31">
-        <v>0.2723807257872742</v>
+        <v>0.2648803864485286</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N31">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q31">
-        <v>487.3704866376929</v>
+        <v>537.2507482734715</v>
       </c>
       <c r="R31">
-        <v>487.3704866376929</v>
+        <v>4835.256734461243</v>
       </c>
       <c r="S31">
-        <v>0.01251628591659081</v>
+        <v>0.01166425743586846</v>
       </c>
       <c r="T31">
-        <v>0.01251628591659081</v>
+        <v>0.01166425743586846</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H32">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I32">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J32">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N32">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q32">
-        <v>128.5225274047282</v>
+        <v>249.1191503501</v>
       </c>
       <c r="R32">
-        <v>128.5225274047282</v>
+        <v>2242.0723531509</v>
       </c>
       <c r="S32">
-        <v>0.003300619844295771</v>
+        <v>0.005408628859478629</v>
       </c>
       <c r="T32">
-        <v>0.003300619844295771</v>
+        <v>0.005408628859478631</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H33">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I33">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J33">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N33">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q33">
-        <v>835.4048864741519</v>
+        <v>881.2847873704001</v>
       </c>
       <c r="R33">
-        <v>835.4048864741519</v>
+        <v>7931.563086333601</v>
       </c>
       <c r="S33">
-        <v>0.02145424620879967</v>
+        <v>0.01913358458268811</v>
       </c>
       <c r="T33">
-        <v>0.02145424620879967</v>
+        <v>0.01913358458268811</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H34">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I34">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J34">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N34">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q34">
-        <v>238.1340991689571</v>
+        <v>344.63751981788</v>
       </c>
       <c r="R34">
-        <v>238.1340991689571</v>
+        <v>3101.73767836092</v>
       </c>
       <c r="S34">
-        <v>0.006115582607906614</v>
+        <v>0.007482429323986234</v>
       </c>
       <c r="T34">
-        <v>0.006115582607906614</v>
+        <v>0.007482429323986237</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H35">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I35">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J35">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N35">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q35">
-        <v>241.6154737832031</v>
+        <v>255.03281726104</v>
       </c>
       <c r="R35">
-        <v>241.6154737832031</v>
+        <v>2295.29535534936</v>
       </c>
       <c r="S35">
-        <v>0.006204988678338319</v>
+        <v>0.005537020552670037</v>
       </c>
       <c r="T35">
-        <v>0.006204988678338319</v>
+        <v>0.005537020552670038</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H36">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I36">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J36">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N36">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q36">
-        <v>234.1981809424914</v>
+        <v>258.65392764564</v>
       </c>
       <c r="R36">
-        <v>234.1981809424914</v>
+        <v>2327.88534881076</v>
       </c>
       <c r="S36">
-        <v>0.006014503286902536</v>
+        <v>0.005615638523636866</v>
       </c>
       <c r="T36">
-        <v>0.006014503286902536</v>
+        <v>0.005615638523636867</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.75085971834875</v>
+        <v>10.19562</v>
       </c>
       <c r="H37">
-        <v>9.75085971834875</v>
+        <v>30.58686</v>
       </c>
       <c r="I37">
-        <v>0.04516535355028655</v>
+        <v>0.045166239774812</v>
       </c>
       <c r="J37">
-        <v>0.04516535355028655</v>
+        <v>0.04516623977481201</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N37">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q37">
-        <v>80.81430973261264</v>
+        <v>91.60963724443999</v>
       </c>
       <c r="R37">
-        <v>80.81430973261264</v>
+        <v>824.4867351999601</v>
       </c>
       <c r="S37">
-        <v>0.002075412924043643</v>
+        <v>0.001988937932352127</v>
       </c>
       <c r="T37">
-        <v>0.002075412924043643</v>
+        <v>0.001988937932352127</v>
       </c>
     </row>
   </sheetData>
